--- a/任课安排表.xlsx
+++ b/任课安排表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="184">
   <si>
     <t>班别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,14 +729,6 @@
   </si>
   <si>
     <t>施优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,12 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1118,24 +1104,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2187,33 +2173,6 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
